--- a/fueling_stations_info.xlsx
+++ b/fueling_stations_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzolea\Desktop\NJ_fueling_stations\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9E9983-7379-4535-B552-0AD9CA4EABED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8222E1A-5104-48F8-BC69-54F481593DE7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14655" yWindow="1005" windowWidth="14115" windowHeight="14595" xr2:uid="{BA945EDE-21E4-4311-A89F-30AF94046CBE}"/>
+    <workbookView xWindow="14040" yWindow="0" windowWidth="14010" windowHeight="15195" xr2:uid="{BA945EDE-21E4-4311-A89F-30AF94046CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>County</t>
   </si>
@@ -239,6 +239,155 @@
   </si>
   <si>
     <t>Rt. 70 West of Rt. 206 at Red Lion Circle</t>
+  </si>
+  <si>
+    <t>CAMDEN</t>
+  </si>
+  <si>
+    <t>Berlin DOT</t>
+  </si>
+  <si>
+    <t>Cherry Hill DOT</t>
+  </si>
+  <si>
+    <t>Pennsauken DOT</t>
+  </si>
+  <si>
+    <t>7:30 am to 3:45 pm M-F</t>
+  </si>
+  <si>
+    <t> -74.98461145</t>
+  </si>
+  <si>
+    <t>36 Walker Ave.</t>
+  </si>
+  <si>
+    <t>Frontage Rd &amp; Rt. 70 Near Rt. 295</t>
+  </si>
+  <si>
+    <t>3750 Rt. 130 &amp; Federal St. Ramp (southbound)</t>
+  </si>
+  <si>
+    <t>CAPE MAY</t>
+  </si>
+  <si>
+    <t>Middle Township DOT</t>
+  </si>
+  <si>
+    <t>North Wildwod State Police 1ST &amp; Central Ave.</t>
+  </si>
+  <si>
+    <t>Petersburg DOT</t>
+  </si>
+  <si>
+    <t>Woodbine Dev. Center</t>
+  </si>
+  <si>
+    <t>7:00 am TO 7:00 pm</t>
+  </si>
+  <si>
+    <t>Open 24 Hrs.</t>
+  </si>
+  <si>
+    <t>Unleaded Only</t>
+  </si>
+  <si>
+    <t> -74.73066206</t>
+  </si>
+  <si>
+    <t> -74.80345129</t>
+  </si>
+  <si>
+    <t>CUMBERLAND</t>
+  </si>
+  <si>
+    <t>ESSEX</t>
+  </si>
+  <si>
+    <t>GLOUCESTER</t>
+  </si>
+  <si>
+    <t>Rt. 9 &amp; W.Edgewood Ave</t>
+  </si>
+  <si>
+    <t>400 Old Tuckahoe Rd</t>
+  </si>
+  <si>
+    <t>1175 DeHirsch Ave. &amp; Fantail </t>
+  </si>
+  <si>
+    <t>Bayside Facility</t>
+  </si>
+  <si>
+    <t>Cumberland DOT</t>
+  </si>
+  <si>
+    <t>Port Norris State Police</t>
+  </si>
+  <si>
+    <t>Southwoods State Prison</t>
+  </si>
+  <si>
+    <t>Vineland DOT</t>
+  </si>
+  <si>
+    <t>7:00 am to 7:00 pm</t>
+  </si>
+  <si>
+    <t> 39.45778852</t>
+  </si>
+  <si>
+    <t>4294 Rt. 47 </t>
+  </si>
+  <si>
+    <t>Rt. 49 &amp; Hesstown Rd.</t>
+  </si>
+  <si>
+    <t>1 N.Industrial Blvd &amp; 215 S. Burlington Road</t>
+  </si>
+  <si>
+    <t>1959 Delsea Dr  &amp; West Elmer Rd</t>
+  </si>
+  <si>
+    <t>Newark DOT</t>
+  </si>
+  <si>
+    <t>West Orange DOT</t>
+  </si>
+  <si>
+    <t>PASSAIC</t>
+  </si>
+  <si>
+    <t>Clifton DOT</t>
+  </si>
+  <si>
+    <t>Totowa DOT</t>
+  </si>
+  <si>
+    <t>Paterson DOT</t>
+  </si>
+  <si>
+    <r>
+      <t>40.838978</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>1 McClean Blvd</t>
+  </si>
+  <si>
+    <t>300 Minisink Rd. off Rt. 80 West Bound</t>
+  </si>
+  <si>
+    <t>Bloomfield Ave East &amp; Isabella St.</t>
   </si>
 </sst>
 </file>
@@ -605,15 +754,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1477A6DB-FE8D-4BF2-BA43-D4707C3BC3C3}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -680,6 +829,12 @@
       <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="E3">
+        <v>334343</v>
+      </c>
+      <c r="F3">
+        <v>34343</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
@@ -909,6 +1064,402 @@
       </c>
       <c r="G13" s="2" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>39.803693289999998</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-74.934427220000003</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>39.903891520000002</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>39.949341529999998</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-75.07126805</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>39.02916768</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-74.863273710000001</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43434</v>
+      </c>
+      <c r="F18" s="1">
+        <v>434343</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>39.259647129999998</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>39.234139579999997</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>39.233399970000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-74.965682020000003</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>39.364174069999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-74.930849809999998</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>39.414981160000004</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-75.21248817</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-75.041879870000002</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>40.7094199</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-74.175711620000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1">
+        <v>40.783661619999997</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-74.275980340000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-74.161580000000001</v>
+      </c>
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1">
+        <v>40.897764309999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-74.229757359999994</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>40.935886689999997</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-74.141871879999997</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
